--- a/trend_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
+++ b/trend_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
+++ b/trend_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>site name</t>
   </si>
@@ -97,10 +97,10 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,31 +567,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>1.00631222248534E-06</v>
+        <v>0.942516299506813</v>
       </c>
       <c r="G2">
-        <v>0.008474576271186401</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.779661016949153</v>
+        <v>0.854838709677419</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>297.5</v>
+        <v>338.5</v>
       </c>
       <c r="K2">
-        <v>73.578211181249</v>
+        <v>-25.0587318087318</v>
       </c>
       <c r="L2">
-        <v>54.0970137976521</v>
+        <v>-53.597673833151</v>
       </c>
       <c r="M2">
-        <v>95.2683708909649</v>
+        <v>0.676522466619262</v>
       </c>
       <c r="N2">
-        <v>24.7321718256299</v>
+        <v>-7.40287498042299</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -638,37 +638,37 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>3.53793084209086E-08</v>
+        <v>2.93723392428511E-07</v>
       </c>
       <c r="G3">
-        <v>0.0087719298245614</v>
+        <v>0.0083333333333333</v>
       </c>
       <c r="H3">
-        <v>0.635964912280702</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K3">
-        <v>26.4271996426976</v>
+        <v>23.7006666666667</v>
       </c>
       <c r="L3">
-        <v>18.0526854572344</v>
+        <v>15.5348161856652</v>
       </c>
       <c r="M3">
-        <v>34.7353448008984</v>
+        <v>32.1775789987424</v>
       </c>
       <c r="N3">
-        <v>12.584380782237</v>
+        <v>10.12849002849</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <v>1785906</v>
@@ -709,13 +709,13 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>0.0115876349479493</v>
+        <v>1.66789536849897E-07</v>
       </c>
       <c r="G4">
-        <v>0.0057971014492753</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H4">
-        <v>0.556521739130435</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>190</v>
       </c>
       <c r="K4">
-        <v>5.92893544733862</v>
+        <v>12.2120060790274</v>
       </c>
       <c r="L4">
-        <v>1.50007346376569</v>
+        <v>8.06448312409491</v>
       </c>
       <c r="M4">
-        <v>10.4924929296871</v>
+        <v>16.553583950288</v>
       </c>
       <c r="N4">
-        <v>3.12049234070454</v>
+        <v>6.42737162054071</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -760,6 +760,77 @@
         <v>32</v>
       </c>
       <c r="W4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0.0001282151762366</v>
+      </c>
+      <c r="G5">
+        <v>0.0109170305676856</v>
+      </c>
+      <c r="H5">
+        <v>0.5305676855895201</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>197</v>
+      </c>
+      <c r="K5">
+        <v>5.40666768460931</v>
+      </c>
+      <c r="L5">
+        <v>2.87825362131148</v>
+      </c>
+      <c r="M5">
+        <v>8.00109529025192</v>
+      </c>
+      <c r="N5">
+        <v>2.74450136274584</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>1785906</v>
+      </c>
+      <c r="R5">
+        <v>5509152</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" t="s">
         <v>33</v>
       </c>
     </row>
